--- a/data/EXP_2/exp2_compiled_results.xlsx
+++ b/data/EXP_2/exp2_compiled_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F1C0D5-C207-D040-B703-F6E32FF16E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B2520-7B3B-F34D-AA43-134A550DC9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15940" xr2:uid="{17F42F35-92F9-B148-8020-18279F19498E}"/>
+    <workbookView xWindow="-31800" yWindow="-320" windowWidth="27240" windowHeight="15940" xr2:uid="{17F42F35-92F9-B148-8020-18279F19498E}"/>
   </bookViews>
   <sheets>
     <sheet name="HSC70" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
   <si>
     <t>Sample</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>stdev</t>
+  </si>
+  <si>
+    <t>0.009*</t>
+  </si>
+  <si>
+    <t>*signficantly different than B or C</t>
   </si>
 </sst>
 </file>
@@ -163,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -174,6 +180,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,11 +495,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74681A15-995D-5B4A-B367-ACDD8A00AFEF}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -504,7 +511,7 @@
     <col min="8" max="8" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +546,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>50</v>
       </c>
@@ -584,7 +591,7 @@
         <v>8.132297590173529</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>51</v>
       </c>
@@ -612,8 +619,17 @@
       <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="3">
+        <v>6.2450000000000001</v>
+      </c>
+      <c r="K3" s="3">
+        <v>16.184999999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>8.0549999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>52</v>
       </c>
@@ -641,8 +657,20 @@
       <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J4" s="3">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>54</v>
       </c>
@@ -668,7 +696,7 @@
         <v>10.101399843481529</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>55</v>
       </c>
@@ -694,7 +722,7 @@
         <v>8.5876751209201258E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>59</v>
       </c>
@@ -720,7 +748,7 @@
         <v>13.943137497555547</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>62</v>
       </c>
@@ -747,7 +775,7 @@
         <v>75.906686734800402</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>65</v>
       </c>
@@ -773,7 +801,7 @@
         <v>0.12368508146994851</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>66</v>
       </c>
@@ -799,7 +827,7 @@
         <v>10.174325776508983</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>67</v>
       </c>
@@ -825,7 +853,7 @@
         <v>9.51390290146289</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>69</v>
       </c>
@@ -851,7 +879,7 @@
         <v>2.2112164300001171</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>71</v>
       </c>
@@ -877,7 +905,7 @@
         <v>13.798918835768342</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>73</v>
       </c>
@@ -903,7 +931,7 @@
         <v>3.1743986761622427</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>76</v>
       </c>
@@ -929,7 +957,7 @@
         <v>13.009407290753304</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>77</v>
       </c>

--- a/data/EXP_2/exp2_compiled_results.xlsx
+++ b/data/EXP_2/exp2_compiled_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406B2520-7B3B-F34D-AA43-134A550DC9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF712E0D-764C-384B-8333-45C20089148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31800" yWindow="-320" windowWidth="27240" windowHeight="15940" xr2:uid="{17F42F35-92F9-B148-8020-18279F19498E}"/>
+    <workbookView xWindow="260" yWindow="1080" windowWidth="27240" windowHeight="15940" activeTab="1" xr2:uid="{17F42F35-92F9-B148-8020-18279F19498E}"/>
   </bookViews>
   <sheets>
     <sheet name="HSC70" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="20">
   <si>
     <t>Sample</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>*signficantly different than B or C</t>
+  </si>
+  <si>
+    <t>average Cq (GADD45)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74681A15-995D-5B4A-B367-ACDD8A00AFEF}">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
@@ -1435,12 +1438,365 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9BA715-DDE4-C948-B24F-53E91E7B963A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>36.520000000000003</v>
+      </c>
+      <c r="E2">
+        <v>-3.49</v>
+      </c>
+      <c r="F2">
+        <v>-1.25</v>
+      </c>
+      <c r="G2">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="H2">
+        <v>2.37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>0.66</v>
+      </c>
+      <c r="K2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L2">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>39.08</v>
+      </c>
+      <c r="E3">
+        <v>-0.92</v>
+      </c>
+      <c r="F3">
+        <v>1.32</v>
+      </c>
+      <c r="H3">
+        <v>0.4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="K3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.77470000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>52</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>36.11</v>
+      </c>
+      <c r="E4">
+        <v>-3.89</v>
+      </c>
+      <c r="F4">
+        <v>-1.65</v>
+      </c>
+      <c r="H4">
+        <v>3.14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>9.2030000000000001E-2</v>
+      </c>
+      <c r="K4">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="L4">
+        <v>0.41232000000000002</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>54</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="E5">
+        <v>-3.38</v>
+      </c>
+      <c r="F5">
+        <v>-1.1399999999999999</v>
+      </c>
+      <c r="H5">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="E6">
+        <v>-0.88</v>
+      </c>
+      <c r="F6">
+        <v>1.36</v>
+      </c>
+      <c r="H6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>36.21</v>
+      </c>
+      <c r="E7">
+        <v>-3.79</v>
+      </c>
+      <c r="F7">
+        <v>-1.55</v>
+      </c>
+      <c r="H7">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>76</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>38.15</v>
+      </c>
+      <c r="E8">
+        <v>-1.85</v>
+      </c>
+      <c r="F8">
+        <v>0.39</v>
+      </c>
+      <c r="H8">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>37.6</v>
+      </c>
+      <c r="E9">
+        <v>-2.41</v>
+      </c>
+      <c r="F9">
+        <v>-0.17</v>
+      </c>
+      <c r="H9">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>38.99</v>
+      </c>
+      <c r="E10">
+        <v>-1.02</v>
+      </c>
+      <c r="F10">
+        <v>1.22</v>
+      </c>
+      <c r="H10">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>92</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>39.6</v>
+      </c>
+      <c r="E11">
+        <v>-0.4</v>
+      </c>
+      <c r="F11">
+        <v>1.84</v>
+      </c>
+      <c r="H11">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>95</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>34.549999999999997</v>
+      </c>
+      <c r="E12">
+        <v>-5.46</v>
+      </c>
+      <c r="F12">
+        <v>-3.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>96</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>38.08</v>
+      </c>
+      <c r="E13">
+        <v>-1.92</v>
+      </c>
+      <c r="F13">
+        <v>0.32</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/EXP_2/exp2_compiled_results.xlsx
+++ b/data/EXP_2/exp2_compiled_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/fish541_lab/data/EXP_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF712E0D-764C-384B-8333-45C20089148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3D463C-9E1E-F141-AD62-13E43C7A6A68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="1080" windowWidth="27240" windowHeight="15940" activeTab="1" xr2:uid="{17F42F35-92F9-B148-8020-18279F19498E}"/>
   </bookViews>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1481,318 +1481,318 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>50</v>
       </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="3">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>36.520000000000003</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>-3.49</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>-1.25</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>2.37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.66</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1.36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>51</v>
       </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="3">
+        <v>40</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>39.08</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>-0.92</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1.32</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.4</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>1.3725000000000001</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.77470000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>52</v>
       </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>36.11</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>-3.89</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>-1.65</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>3.14</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>9.2030000000000001E-2</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>3.9399999999999999E-3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>0.41232000000000002</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>54</v>
       </c>
-      <c r="B5">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="3">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>36.619999999999997</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>-3.38</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>2.21</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="6" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>71</v>
       </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="8">
+        <v>40</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>39.119999999999997</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="8">
         <v>-0.88</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="8">
         <v>1.36</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="8">
         <v>0.39</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row r="7" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>73</v>
       </c>
-      <c r="B7">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="8">
+        <v>40</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>36.21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="8">
         <v>-3.79</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="8">
         <v>-1.55</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="8">
         <v>2.93</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row r="8" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>76</v>
       </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="8">
+        <v>40</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>38.15</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="8">
         <v>-1.85</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="8">
         <v>0.39</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="8">
         <v>0.76</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="9" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
         <v>90</v>
       </c>
-      <c r="B9">
-        <v>40</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="6">
+        <v>40</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>37.6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>-2.41</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>-0.17</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="10" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
         <v>91</v>
       </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="6">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="6">
         <v>38.99</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>-1.02</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="6">
         <v>1.22</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>0.43</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
         <v>92</v>
       </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="6">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>39.6</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>-0.4</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="6">
         <v>1.84</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="12" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
         <v>95</v>
       </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="6">
+        <v>40</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="6">
         <v>34.549999999999997</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>-5.46</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="6">
         <v>-3.22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="13" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
         <v>96</v>
       </c>
-      <c r="B13">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="6">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="6">
         <v>38.08</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>-1.92</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="6">
         <v>0.32</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>0.8</v>
       </c>
     </row>
